--- a/data/trans_orig/Q23_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95FEF8C3-89B5-4902-AF30-A1F13B882187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47D0ED8E-1B6E-4E00-A63C-ECE544906003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B2143B9-2614-4B6D-9EEC-A94EB757ACB4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63E2DD71-A01A-4986-A952-0C93F878F5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="425">
   <si>
     <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
@@ -75,1246 +75,1243 @@
     <t>6,43%</t>
   </si>
   <si>
-    <t>1,45%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>Tercer Cuartil</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>Segundo Cuartil</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>Primer Cuartil</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>Tercer Cuartil</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>Segundo Cuartil</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>Primer Cuartil</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>30,91%</t>
   </si>
   <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
   </si>
   <si>
     <t>35,12%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAD065A-7A3E-4765-B33A-83913BE853FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A084228-704D-4D13-974C-2A80354D7FF7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2212,10 +2209,10 @@
         <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -2224,13 +2221,13 @@
         <v>34374</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -2239,13 +2236,13 @@
         <v>101917</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,13 +2257,13 @@
         <v>121231</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -2275,13 +2272,13 @@
         <v>42260</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>161</v>
@@ -2290,13 +2287,13 @@
         <v>163491</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,7 +2349,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2364,13 +2361,13 @@
         <v>69997</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -2379,13 +2376,13 @@
         <v>65291</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>121</v>
@@ -2394,13 +2391,13 @@
         <v>135288</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,13 +2412,13 @@
         <v>170937</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>98</v>
@@ -2430,13 +2427,13 @@
         <v>105865</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>257</v>
@@ -2445,13 +2442,13 @@
         <v>276802</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2463,13 @@
         <v>108275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -2481,13 +2478,13 @@
         <v>49819</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -2496,13 +2493,13 @@
         <v>158094</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2514,13 @@
         <v>183588</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -2532,13 +2529,13 @@
         <v>62858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -2547,13 +2544,13 @@
         <v>246446</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,7 +2606,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2621,13 +2618,13 @@
         <v>37031</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -2636,13 +2633,13 @@
         <v>47848</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -2651,13 +2648,13 @@
         <v>84879</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2669,13 @@
         <v>114576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>70</v>
@@ -2687,13 +2684,13 @@
         <v>66890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>178</v>
@@ -2702,13 +2699,13 @@
         <v>181466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2720,13 @@
         <v>75661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -2738,13 +2735,13 @@
         <v>31045</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>104</v>
@@ -2753,13 +2750,13 @@
         <v>106706</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,13 +2771,13 @@
         <v>127263</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -2789,13 +2786,13 @@
         <v>54274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>175</v>
@@ -2804,13 +2801,13 @@
         <v>181537</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,7 +2863,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2878,13 +2875,13 @@
         <v>61324</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>71</v>
@@ -2893,13 +2890,13 @@
         <v>75619</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>134</v>
@@ -2908,13 +2905,13 @@
         <v>136943</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,10 +2929,10 @@
         <v>27</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>111</v>
@@ -2944,13 +2941,13 @@
         <v>116391</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>275</v>
@@ -2959,13 +2956,13 @@
         <v>276005</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2977,13 @@
         <v>121036</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -2995,13 +2992,13 @@
         <v>61206</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>185</v>
@@ -3010,13 +3007,13 @@
         <v>182242</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3028,13 @@
         <v>177088</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>109</v>
@@ -3046,13 +3043,13 @@
         <v>110606</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>298</v>
@@ -3061,13 +3058,13 @@
         <v>287694</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3132,13 @@
         <v>192997</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>208</v>
@@ -3150,13 +3147,13 @@
         <v>218333</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>392</v>
@@ -3165,13 +3162,13 @@
         <v>411330</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3183,13 @@
         <v>569454</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>342</v>
@@ -3201,28 +3198,28 @@
         <v>352318</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>896</v>
       </c>
       <c r="N30" s="7">
-        <v>921772</v>
+        <v>921771</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3234,13 @@
         <v>385522</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>176</v>
@@ -3252,13 +3249,13 @@
         <v>180432</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>560</v>
@@ -3267,13 +3264,13 @@
         <v>565954</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3285,13 @@
         <v>641679</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>276</v>
@@ -3303,13 +3300,13 @@
         <v>278236</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>908</v>
@@ -3318,13 +3315,13 @@
         <v>919915</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,7 +3363,7 @@
         <v>2756</v>
       </c>
       <c r="N33" s="7">
-        <v>2818971</v>
+        <v>2818970</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -3401,7 +3398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD7083F-54B9-404D-8E43-A374F7F11854}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85659C5F-4797-4205-9B45-04BDC8F1A842}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3543,10 +3540,10 @@
         <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -3555,13 +3552,13 @@
         <v>19734</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3573,13 @@
         <v>8179</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3591,13 +3588,13 @@
         <v>7793</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -3606,13 +3603,13 @@
         <v>15972</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3624,13 @@
         <v>18307</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -3642,13 +3639,13 @@
         <v>8334</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -3657,13 +3654,13 @@
         <v>26641</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3675,13 @@
         <v>36822</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3693,13 +3690,13 @@
         <v>5777</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -3708,13 +3705,13 @@
         <v>42599</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3779,13 @@
         <v>57456</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H9" s="7">
         <v>36</v>
@@ -3797,13 +3794,13 @@
         <v>37757</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M9" s="7">
         <v>90</v>
@@ -3812,13 +3809,13 @@
         <v>95213</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3830,13 @@
         <v>116097</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -3848,13 +3845,13 @@
         <v>70338</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -3863,13 +3860,13 @@
         <v>186435</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3881,13 @@
         <v>62793</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -3899,13 +3896,13 @@
         <v>38873</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>97</v>
@@ -3914,13 +3911,13 @@
         <v>101666</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3932,13 @@
         <v>139511</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -3950,13 +3947,13 @@
         <v>42812</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M12" s="7">
         <v>169</v>
@@ -4027,7 +4024,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4075,7 +4072,7 @@
         <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4087,13 @@
         <v>174026</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>308</v>
+        <v>118</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H15" s="7">
         <v>115</v>
@@ -4105,13 +4102,13 @@
         <v>125545</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M15" s="7">
         <v>277</v>
@@ -4120,13 +4117,13 @@
         <v>299571</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4138,13 @@
         <v>140054</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -4156,13 +4153,13 @@
         <v>53895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -4171,13 +4168,13 @@
         <v>193949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>323</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4189,13 @@
         <v>221908</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -4207,13 +4204,13 @@
         <v>108675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -4222,13 +4219,13 @@
         <v>330583</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,7 +4281,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4296,13 +4293,13 @@
         <v>82724</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -4311,13 +4308,13 @@
         <v>74371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -4326,13 +4323,13 @@
         <v>157094</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4344,13 @@
         <v>145022</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>340</v>
+        <v>174</v>
       </c>
       <c r="H20" s="7">
         <v>84</v>
@@ -4365,10 +4362,10 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -4377,13 +4374,13 @@
         <v>235016</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4395,13 @@
         <v>77958</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H21" s="7">
         <v>59</v>
@@ -4413,13 +4410,13 @@
         <v>69152</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>73</v>
+        <v>353</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M21" s="7">
         <v>132</v>
@@ -4428,13 +4425,13 @@
         <v>147109</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>353</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4446,13 @@
         <v>177359</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>297</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -4464,13 +4461,13 @@
         <v>96722</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>357</v>
+        <v>245</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>251</v>
@@ -4479,13 +4476,13 @@
         <v>274081</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,7 +4538,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4553,13 +4550,13 @@
         <v>85374</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H24" s="7">
         <v>84</v>
@@ -4568,13 +4565,13 @@
         <v>89847</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M24" s="7">
         <v>161</v>
@@ -4583,13 +4580,13 @@
         <v>175222</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4601,13 @@
         <v>168865</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>372</v>
+        <v>209</v>
       </c>
       <c r="H25" s="7">
         <v>119</v>
@@ -4619,13 +4616,13 @@
         <v>124083</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M25" s="7">
         <v>284</v>
@@ -4634,13 +4631,13 @@
         <v>292947</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4652,13 @@
         <v>95516</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -4670,13 +4667,13 @@
         <v>64249</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>382</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>384</v>
+        <v>216</v>
       </c>
       <c r="M26" s="7">
         <v>154</v>
@@ -4688,10 +4685,10 @@
         <v>385</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4703,13 @@
         <v>199891</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H27" s="7">
         <v>112</v>
@@ -4721,13 +4718,13 @@
         <v>122439</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M27" s="7">
         <v>305</v>
@@ -4736,13 +4733,13 @@
         <v>322329</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4807,13 @@
         <v>343004</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H29" s="7">
         <v>276</v>
@@ -4825,13 +4822,13 @@
         <v>304397</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M29" s="7">
         <v>575</v>
@@ -4840,13 +4837,13 @@
         <v>647402</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4858,13 @@
         <v>612189</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H30" s="7">
         <v>389</v>
@@ -4876,13 +4873,13 @@
         <v>417752</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M30" s="7">
         <v>968</v>
@@ -4891,13 +4888,13 @@
         <v>1029941</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,10 +4912,10 @@
         <v>411</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>412</v>
+        <v>270</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>413</v>
+        <v>103</v>
       </c>
       <c r="H31" s="7">
         <v>216</v>
@@ -4930,10 +4927,10 @@
         <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>268</v>
+        <v>413</v>
       </c>
       <c r="M31" s="7">
         <v>588</v>
@@ -4942,10 +4939,10 @@
         <v>629130</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>416</v>
@@ -4966,10 +4963,10 @@
         <v>417</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H32" s="7">
         <v>344</v>
@@ -4978,13 +4975,13 @@
         <v>376424</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M32" s="7">
         <v>1073</v>
@@ -4993,13 +4990,13 @@
         <v>1151915</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q23_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47D0ED8E-1B6E-4E00-A63C-ECE544906003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A76D8C2-B56B-49FA-9D68-BE2623922F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63E2DD71-A01A-4986-A952-0C93F878F5BE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44C40904-A76A-4331-9839-E5DEC878ABCC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Cuarto Cuartil</t>
@@ -75,28 +75,28 @@
     <t>6,43%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>27,38%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>12,03%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>Tercer Cuartil</t>
@@ -105,10 +105,10 @@
     <t>32,03%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
   </si>
   <si>
     <t>27,25%</t>
@@ -117,1201 +117,1201 @@
     <t>12,99%</t>
   </si>
   <si>
-    <t>46,36%</t>
+    <t>45,5%</t>
   </si>
   <si>
     <t>30,75%</t>
   </si>
   <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>Segundo Cuartil</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>Primer Cuartil</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>Segundo Cuartil</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>Primer Cuartil</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>38,27%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
   </si>
   <si>
     <t>31,34%</t>
   </si>
   <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
   </si>
   <si>
     <t>25,64%</t>
   </si>
   <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A084228-704D-4D13-974C-2A80354D7FF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11662C92-C01C-43E7-A684-1F9AA7DAF5DA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2206,10 +2206,10 @@
         <v>67543</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>70</v>
@@ -2221,13 +2221,13 @@
         <v>34374</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -2236,13 +2236,13 @@
         <v>101917</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2257,13 @@
         <v>121231</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -2272,13 +2272,13 @@
         <v>42260</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>161</v>
@@ -2287,13 +2287,13 @@
         <v>163491</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,7 +2349,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2361,13 +2361,13 @@
         <v>69997</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -2376,13 +2376,13 @@
         <v>65291</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>121</v>
@@ -2391,13 +2391,13 @@
         <v>135288</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2412,13 @@
         <v>170937</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>98</v>
@@ -2427,13 +2427,13 @@
         <v>105865</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>257</v>
@@ -2442,13 +2442,13 @@
         <v>276802</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,13 +2463,13 @@
         <v>108275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -2478,13 +2478,13 @@
         <v>49819</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -2493,13 +2493,13 @@
         <v>158094</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2514,13 @@
         <v>183588</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -2529,13 +2529,13 @@
         <v>62858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -2544,13 +2544,13 @@
         <v>246446</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,7 +2606,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2618,13 +2618,13 @@
         <v>37031</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -2633,13 +2633,13 @@
         <v>47848</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -2648,13 +2648,13 @@
         <v>84879</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2669,13 @@
         <v>114576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>70</v>
@@ -2684,13 +2684,13 @@
         <v>66890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>178</v>
@@ -2699,13 +2699,13 @@
         <v>181466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2720,13 @@
         <v>75661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -2735,28 +2735,28 @@
         <v>31045</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>104</v>
       </c>
       <c r="N21" s="7">
-        <v>106706</v>
+        <v>106707</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2771,13 @@
         <v>127263</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -2786,28 +2786,28 @@
         <v>54274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>175</v>
       </c>
       <c r="N22" s="7">
-        <v>181537</v>
+        <v>181538</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2849,7 @@
         <v>540</v>
       </c>
       <c r="N23" s="7">
-        <v>554589</v>
+        <v>554590</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2875,13 +2875,13 @@
         <v>61324</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>71</v>
@@ -2890,13 +2890,13 @@
         <v>75619</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>134</v>
@@ -2905,13 +2905,13 @@
         <v>136943</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,10 +2929,10 @@
         <v>27</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>111</v>
@@ -2941,13 +2941,13 @@
         <v>116391</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>275</v>
@@ -2956,13 +2956,13 @@
         <v>276005</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2977,13 @@
         <v>121036</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -2992,13 +2992,13 @@
         <v>61206</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>185</v>
@@ -3007,13 +3007,13 @@
         <v>182242</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3028,13 @@
         <v>177088</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>109</v>
@@ -3043,13 +3043,13 @@
         <v>110606</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>298</v>
@@ -3058,13 +3058,13 @@
         <v>287694</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3132,13 @@
         <v>192997</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>208</v>
@@ -3147,13 +3147,13 @@
         <v>218333</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>392</v>
@@ -3162,13 +3162,13 @@
         <v>411330</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3183,13 @@
         <v>569454</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>342</v>
@@ -3198,28 +3198,28 @@
         <v>352318</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>896</v>
       </c>
       <c r="N30" s="7">
-        <v>921771</v>
+        <v>921772</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3234,13 @@
         <v>385522</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>176</v>
@@ -3249,13 +3249,13 @@
         <v>180432</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>560</v>
@@ -3264,13 +3264,13 @@
         <v>565954</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3285,13 @@
         <v>641679</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="H32" s="7">
         <v>276</v>
@@ -3363,7 +3363,7 @@
         <v>2756</v>
       </c>
       <c r="N33" s="7">
-        <v>2818970</v>
+        <v>2818971</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -3398,7 +3398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85659C5F-4797-4205-9B45-04BDC8F1A842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47817F1-1C74-4AAB-93A9-B271F509E486}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3540,7 +3540,7 @@
         <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>234</v>
@@ -3579,7 +3579,7 @@
         <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3588,13 +3588,13 @@
         <v>7793</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -3603,10 +3603,10 @@
         <v>15972</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>245</v>
@@ -3624,13 +3624,13 @@
         <v>18307</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -3639,13 +3639,13 @@
         <v>8334</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -3654,13 +3654,13 @@
         <v>26641</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3675,13 @@
         <v>36822</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3690,13 +3690,13 @@
         <v>5777</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -3705,13 +3705,13 @@
         <v>42599</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3779,13 @@
         <v>57456</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>36</v>
@@ -3794,13 +3794,13 @@
         <v>37757</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M9" s="7">
         <v>90</v>
@@ -3809,13 +3809,13 @@
         <v>95213</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3830,13 @@
         <v>116097</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -3845,13 +3845,13 @@
         <v>70338</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -3860,13 +3860,13 @@
         <v>186435</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3881,13 @@
         <v>62793</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -3896,13 +3896,13 @@
         <v>38873</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>97</v>
@@ -3911,13 +3911,13 @@
         <v>101666</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3932,13 @@
         <v>139511</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -3947,13 +3947,13 @@
         <v>42812</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M12" s="7">
         <v>169</v>
@@ -3962,13 +3962,13 @@
         <v>182323</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,7 +4024,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4036,13 +4036,13 @@
         <v>108014</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -4051,13 +4051,13 @@
         <v>92125</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>175</v>
@@ -4066,13 +4066,13 @@
         <v>200139</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4087,13 @@
         <v>174026</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>118</v>
+        <v>307</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H15" s="7">
         <v>115</v>
@@ -4102,13 +4102,13 @@
         <v>125545</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M15" s="7">
         <v>277</v>
@@ -4117,13 +4117,13 @@
         <v>299571</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4138,13 @@
         <v>140054</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -4153,13 +4153,13 @@
         <v>53895</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -4168,13 +4168,13 @@
         <v>193949</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4189,13 @@
         <v>221908</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -4204,13 +4204,13 @@
         <v>108675</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -4219,13 +4219,13 @@
         <v>330583</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,7 +4281,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4293,13 +4293,13 @@
         <v>82724</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -4308,13 +4308,13 @@
         <v>74371</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -4323,13 +4323,13 @@
         <v>157094</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4344,13 @@
         <v>145022</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H20" s="7">
         <v>84</v>
@@ -4362,10 +4362,10 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>344</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -4374,13 +4374,13 @@
         <v>235016</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4395,13 @@
         <v>77958</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>351</v>
+        <v>177</v>
       </c>
       <c r="H21" s="7">
         <v>59</v>
@@ -4410,13 +4410,13 @@
         <v>69152</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M21" s="7">
         <v>132</v>
@@ -4425,13 +4425,13 @@
         <v>147109</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>180</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4446,13 @@
         <v>177359</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -4461,13 +4461,13 @@
         <v>96722</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>251</v>
@@ -4476,13 +4476,13 @@
         <v>274081</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,7 +4538,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4550,13 +4550,13 @@
         <v>85374</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H24" s="7">
         <v>84</v>
@@ -4565,13 +4565,13 @@
         <v>89847</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>367</v>
+        <v>112</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M24" s="7">
         <v>161</v>
@@ -4580,13 +4580,13 @@
         <v>175222</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4601,13 @@
         <v>168865</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>374</v>
+        <v>70</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>209</v>
+        <v>371</v>
       </c>
       <c r="H25" s="7">
         <v>119</v>
@@ -4616,13 +4616,13 @@
         <v>124083</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M25" s="7">
         <v>284</v>
@@ -4631,13 +4631,13 @@
         <v>292947</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4652,13 @@
         <v>95516</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -4667,13 +4667,13 @@
         <v>64249</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>381</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>216</v>
+        <v>383</v>
       </c>
       <c r="M26" s="7">
         <v>154</v>
@@ -4682,10 +4682,10 @@
         <v>159765</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>386</v>
@@ -4706,10 +4706,10 @@
         <v>387</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>95</v>
+        <v>388</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H27" s="7">
         <v>112</v>
@@ -4718,13 +4718,13 @@
         <v>122439</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M27" s="7">
         <v>305</v>
@@ -4733,13 +4733,13 @@
         <v>322329</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>394</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,7 +4807,7 @@
         <v>343004</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>395</v>
@@ -4873,13 +4873,13 @@
         <v>417752</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>83</v>
+        <v>406</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M30" s="7">
         <v>968</v>
@@ -4888,13 +4888,13 @@
         <v>1029941</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4909,13 @@
         <v>394628</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>270</v>
+        <v>413</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>103</v>
+        <v>414</v>
       </c>
       <c r="H31" s="7">
         <v>216</v>
@@ -4927,10 +4927,10 @@
         <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>412</v>
+        <v>244</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M31" s="7">
         <v>588</v>
@@ -4939,10 +4939,10 @@
         <v>629130</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>414</v>
+        <v>127</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>415</v>
+        <v>141</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>416</v>
@@ -4963,10 +4963,10 @@
         <v>417</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>168</v>
+        <v>418</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H32" s="7">
         <v>344</v>
@@ -4975,13 +4975,13 @@
         <v>376424</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>421</v>
+        <v>27</v>
       </c>
       <c r="M32" s="7">
         <v>1073</v>

--- a/data/trans_orig/Q23_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A76D8C2-B56B-49FA-9D68-BE2623922F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F92054-268C-4A5D-BB73-44E5553010A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44C40904-A76A-4331-9839-E5DEC878ABCC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FBF85724-4EF7-406E-A782-05CF6F329760}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="426">
   <si>
     <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>6,43%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>27,38%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
   </si>
   <si>
     <t>12,03%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
   </si>
   <si>
     <t>Tercer Cuartil</t>
@@ -105,1213 +105,1216 @@
     <t>32,03%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
   </si>
   <si>
     <t>27,25%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>30,75%</t>
   </si>
   <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>Segundo Cuartil</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>Primer Cuartil</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
     <t>21,84%</t>
   </si>
   <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>Segundo Cuartil</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>Primer Cuartil</t>
-  </si>
-  <si>
-    <t>43,95%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
   </si>
   <si>
     <t>30,51%</t>
   </si>
   <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
   </si>
   <si>
     <t>26,8%</t>
   </si>
   <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
+    <t>19,62%</t>
   </si>
   <si>
     <t>36,49%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>25,64%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11662C92-C01C-43E7-A684-1F9AA7DAF5DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D006586D-8619-41A2-B779-7A6EAE67755E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2206,13 +2209,13 @@
         <v>67543</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -2221,13 +2224,13 @@
         <v>34374</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -2236,13 +2239,13 @@
         <v>101917</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2260,13 @@
         <v>121231</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -2272,13 +2275,13 @@
         <v>42260</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>161</v>
@@ -2287,13 +2290,13 @@
         <v>163491</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,7 +2352,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2361,13 +2364,13 @@
         <v>69997</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -2376,13 +2379,13 @@
         <v>65291</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>121</v>
@@ -2391,13 +2394,13 @@
         <v>135288</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2415,13 @@
         <v>170937</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>98</v>
@@ -2427,13 +2430,13 @@
         <v>105865</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>257</v>
@@ -2442,13 +2445,13 @@
         <v>276802</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,13 +2466,13 @@
         <v>108275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -2478,13 +2481,13 @@
         <v>49819</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -2493,13 +2496,13 @@
         <v>158094</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2517,13 @@
         <v>183588</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -2529,13 +2532,13 @@
         <v>62858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -2544,13 +2547,13 @@
         <v>246446</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,7 +2609,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2618,13 +2621,13 @@
         <v>37031</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -2633,13 +2636,13 @@
         <v>47848</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -2648,13 +2651,13 @@
         <v>84879</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2672,13 @@
         <v>114576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>70</v>
@@ -2684,13 +2687,13 @@
         <v>66890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>178</v>
@@ -2699,13 +2702,13 @@
         <v>181466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2723,13 @@
         <v>75661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -2735,28 +2738,28 @@
         <v>31045</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>104</v>
       </c>
       <c r="N21" s="7">
-        <v>106707</v>
+        <v>106706</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2774,13 @@
         <v>127263</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -2786,28 +2789,28 @@
         <v>54274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>175</v>
       </c>
       <c r="N22" s="7">
-        <v>181538</v>
+        <v>181537</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2852,7 @@
         <v>540</v>
       </c>
       <c r="N23" s="7">
-        <v>554590</v>
+        <v>554589</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2863,7 +2866,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2875,13 +2878,13 @@
         <v>61324</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>71</v>
@@ -2890,13 +2893,13 @@
         <v>75619</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>134</v>
@@ -2905,13 +2908,13 @@
         <v>136943</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,10 +2932,10 @@
         <v>27</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>111</v>
@@ -2941,13 +2944,13 @@
         <v>116391</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>275</v>
@@ -2956,13 +2959,13 @@
         <v>276005</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2980,13 @@
         <v>121036</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -3147,13 +3150,13 @@
         <v>218333</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>392</v>
@@ -3162,13 +3165,13 @@
         <v>411330</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3186,13 @@
         <v>569454</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>342</v>
@@ -3198,13 +3201,13 @@
         <v>352318</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>896</v>
@@ -3213,13 +3216,13 @@
         <v>921772</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3237,13 @@
         <v>385522</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>176</v>
@@ -3249,13 +3252,13 @@
         <v>180432</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>560</v>
@@ -3264,13 +3267,13 @@
         <v>565954</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3288,13 @@
         <v>641679</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>276</v>
@@ -3300,13 +3303,13 @@
         <v>278236</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>908</v>
@@ -3315,13 +3318,13 @@
         <v>919915</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,7 +3401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47817F1-1C74-4AAB-93A9-B271F509E486}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C423373-A355-46D2-8AF8-89C9358047EE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3540,10 +3543,10 @@
         <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -3552,13 +3555,13 @@
         <v>19734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3576,13 @@
         <v>8179</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3588,13 +3591,13 @@
         <v>7793</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -3603,13 +3606,13 @@
         <v>15972</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>57</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3627,13 @@
         <v>18307</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -3639,13 +3642,13 @@
         <v>8334</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -3654,13 +3657,13 @@
         <v>26641</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3678,13 @@
         <v>36822</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3690,13 +3693,13 @@
         <v>5777</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -3705,13 +3708,13 @@
         <v>42599</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3782,13 @@
         <v>57456</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H9" s="7">
         <v>36</v>
@@ -3794,13 +3797,13 @@
         <v>37757</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M9" s="7">
         <v>90</v>
@@ -3809,13 +3812,13 @@
         <v>95213</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3833,13 @@
         <v>116097</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -3845,13 +3848,13 @@
         <v>70338</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -3860,13 +3863,13 @@
         <v>186435</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3884,13 @@
         <v>62793</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -3896,13 +3899,13 @@
         <v>38873</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>97</v>
@@ -3911,13 +3914,13 @@
         <v>101666</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3935,13 @@
         <v>139511</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -3947,13 +3950,13 @@
         <v>42812</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="M12" s="7">
         <v>169</v>
@@ -3962,13 +3965,13 @@
         <v>182323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,7 +4027,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4036,13 +4039,13 @@
         <v>108014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -4051,13 +4054,13 @@
         <v>92125</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>175</v>
@@ -4066,13 +4069,13 @@
         <v>200139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,10 +4090,10 @@
         <v>174026</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>309</v>
@@ -4117,10 +4120,10 @@
         <v>299571</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>314</v>
@@ -4168,13 +4171,13 @@
         <v>193949</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>323</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4192,13 @@
         <v>221908</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -4204,13 +4207,13 @@
         <v>108675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -4219,13 +4222,13 @@
         <v>330583</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,7 +4284,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4293,13 +4296,13 @@
         <v>82724</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -4308,13 +4311,13 @@
         <v>74371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>117</v>
+        <v>333</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -4323,13 +4326,13 @@
         <v>157094</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4347,13 @@
         <v>145022</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H20" s="7">
         <v>84</v>
@@ -4362,10 +4365,10 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>341</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>342</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -4401,7 +4404,7 @@
         <v>347</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>177</v>
+        <v>348</v>
       </c>
       <c r="H21" s="7">
         <v>59</v>
@@ -4410,10 +4413,10 @@
         <v>69152</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>349</v>
+        <v>73</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>350</v>
@@ -4449,10 +4452,10 @@
         <v>354</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -4461,13 +4464,13 @@
         <v>96722</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M22" s="7">
         <v>251</v>
@@ -4476,13 +4479,13 @@
         <v>274081</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,7 +4541,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4550,13 +4553,13 @@
         <v>85374</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H24" s="7">
         <v>84</v>
@@ -4565,7 +4568,7 @@
         <v>89847</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>112</v>
+        <v>364</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>365</v>
@@ -4604,10 +4607,10 @@
         <v>370</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>70</v>
+        <v>371</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H25" s="7">
         <v>119</v>
@@ -4616,13 +4619,13 @@
         <v>124083</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M25" s="7">
         <v>284</v>
@@ -4631,13 +4634,13 @@
         <v>292947</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4655,13 @@
         <v>95516</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -4667,13 +4670,13 @@
         <v>64249</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M26" s="7">
         <v>154</v>
@@ -4682,13 +4685,13 @@
         <v>159765</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4706,13 @@
         <v>199891</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H27" s="7">
         <v>112</v>
@@ -4718,13 +4721,13 @@
         <v>122439</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M27" s="7">
         <v>305</v>
@@ -4733,13 +4736,13 @@
         <v>322329</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>289</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,10 +4813,10 @@
         <v>346</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H29" s="7">
         <v>276</v>
@@ -4822,13 +4825,13 @@
         <v>304397</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M29" s="7">
         <v>575</v>
@@ -4837,13 +4840,13 @@
         <v>647402</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4861,13 @@
         <v>612189</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>405</v>
+        <v>85</v>
       </c>
       <c r="H30" s="7">
         <v>389</v>
@@ -4894,7 +4897,7 @@
         <v>410</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4912,13 @@
         <v>394628</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H31" s="7">
         <v>216</v>
@@ -4927,10 +4930,10 @@
         <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>244</v>
+        <v>414</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>415</v>
+        <v>268</v>
       </c>
       <c r="M31" s="7">
         <v>588</v>
@@ -4939,10 +4942,10 @@
         <v>629130</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>127</v>
+        <v>415</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>416</v>
@@ -4981,7 +4984,7 @@
         <v>421</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>27</v>
+        <v>422</v>
       </c>
       <c r="M32" s="7">
         <v>1073</v>
@@ -4990,13 +4993,13 @@
         <v>1151915</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
